--- a/ddCT_table.xlsx
+++ b/ddCT_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sample Name.mock</t>
+          <t>index</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Sample Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>delta.mock</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Sample Name.ix</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>delta.ix</t>
@@ -466,12 +466,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>foldchange.mean</t>
+          <t>mean</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>foldchange.std</t>
+          <t>std</t>
         </is>
       </c>
     </row>
@@ -479,18 +479,16 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>WT T16 mock</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>WT T16</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>17.04925457636515</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>WT T16 ix</t>
-        </is>
       </c>
       <c r="E2" t="n">
         <v>19.91442441940308</v>
@@ -505,73 +503,162 @@
         <v>0.1846232986021311</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09024339496291085</v>
+        <v>0.09024339496291084</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>WT T16 mock</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17.28411308924357</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>WT T16 ix</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>WT T24</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>17.10274044672648</v>
       </c>
       <c r="E3" t="n">
-        <v>19.0765266418457</v>
+        <v>17.68005275726318</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.792413552602135</v>
+        <v>-0.5773123105367048</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2886886808519903</v>
+        <v>0.6702111946638273</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1846232986021311</v>
+        <v>0.3199296905809799</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09024339496291085</v>
+        <v>0.3056246311436328</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>WT T16 mock</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16.10575501124064</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>WT T16 ix</t>
-        </is>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>WT T16</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17.28411308924357</v>
       </c>
       <c r="E4" t="n">
-        <v>19.07226339975993</v>
+        <v>19.0765266418457</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.966508388519284</v>
+        <v>-1.792413552602135</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1279357715697894</v>
+        <v>0.2886886808519903</v>
       </c>
       <c r="H4" t="n">
         <v>0.1846232986021311</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09024339496291085</v>
+        <v>0.09024339496291084</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>WT T24</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>16.0108904838562</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18.46899700164795</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-2.458106517791748</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1819852567011064</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3199296905809799</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3056246311436328</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>WT T16</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>16.10575501124064</v>
+      </c>
+      <c r="E6" t="n">
+        <v>19.07226339975993</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-2.966508388519284</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1279357715697894</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1846232986021311</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.09024339496291084</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>WT T24</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>16.19931856791179</v>
+      </c>
+      <c r="E7" t="n">
+        <v>19.41566753387451</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-3.216348965962727</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1075926203780061</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.3199296905809799</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.3056246311436328</v>
       </c>
     </row>
   </sheetData>
